--- a/data/tehilim-data/13.xlsx
+++ b/data/tehilim-data/13.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
   <si>
     <t>original</t>
   </si>
@@ -43,10 +43,16 @@
     <t>ב</t>
   </si>
   <si>
-    <t>עַד-אָנָה יְהוָה</t>
+    <t>עַד-אָנָה</t>
   </si>
   <si>
-    <t>Доколе, Господи</t>
+    <t>Доколе</t>
+  </si>
+  <si>
+    <t>יְהוָה</t>
+  </si>
+  <si>
+    <t>Господи</t>
   </si>
   <si>
     <t>תִּשְׁכָּחֵנִי</t>
@@ -59,12 +65,6 @@
   </si>
   <si>
     <t>навсегда</t>
-  </si>
-  <si>
-    <t>עַד-אָנָה</t>
-  </si>
-  <si>
-    <t>Доколе</t>
   </si>
   <si>
     <t>תַּסְתִּיר</t>
@@ -157,12 +157,6 @@
     <t>услышь меня</t>
   </si>
   <si>
-    <t>יְהוָה</t>
-  </si>
-  <si>
-    <t>Господи</t>
-  </si>
-  <si>
     <t>אֱלֹהַי</t>
   </si>
   <si>
@@ -181,10 +175,16 @@
     <t>глаза мои</t>
   </si>
   <si>
-    <t>פֶּן-אִישַׁן</t>
+    <t>פֶּן</t>
   </si>
   <si>
-    <t>чтобы не уснул</t>
+    <t xml:space="preserve">чтобы не </t>
+  </si>
+  <si>
+    <t>אִישַׁן</t>
+  </si>
+  <si>
+    <t>уснул</t>
   </si>
   <si>
     <t>הַמָּוֶת</t>
@@ -196,10 +196,10 @@
     <t>ה</t>
   </si>
   <si>
-    <t>פֶּן-יֹאמַר</t>
+    <t>יֹאמַר</t>
   </si>
   <si>
-    <t>чтобы не сказал</t>
+    <t>сказал</t>
   </si>
   <si>
     <t>יְכָלְתִּיו</t>
@@ -277,17 +277,26 @@
     <t>Господу</t>
   </si>
   <si>
-    <t>כִּי גָמַל עָלָי</t>
+    <t xml:space="preserve">כִּי </t>
   </si>
   <si>
-    <t>ибо Он благодетельствовал мне</t>
+    <t xml:space="preserve">ибо  </t>
+  </si>
+  <si>
+    <t>גָמַל</t>
+  </si>
+  <si>
+    <t>Он благодетельствовал</t>
+  </si>
+  <si>
+    <t>мне</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -303,13 +312,23 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Docs-Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -331,6 +350,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -776,10 +801,10 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="2"/>
@@ -873,10 +898,10 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -905,10 +930,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -937,10 +962,10 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -969,10 +994,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
-      <c r="B14" s="4">
-        <v>3.0</v>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1001,10 +1026,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
+      <c r="B15" s="4">
+        <v>3.0</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1033,10 +1058,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1065,10 +1090,10 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1097,10 +1122,10 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1129,10 +1154,10 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1161,10 +1186,10 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1193,10 +1218,10 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1225,10 +1250,10 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1257,10 +1282,10 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1289,10 +1314,10 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1321,10 +1346,10 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1353,10 +1378,10 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
-      <c r="B26" s="4">
-        <v>4.0</v>
+      <c r="B26" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1385,10 +1410,10 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>45</v>
+      <c r="B27" s="4">
+        <v>4.0</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1417,10 +1442,10 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1449,10 +1474,10 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1481,10 +1506,10 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1513,10 +1538,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1545,10 +1570,10 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1577,10 +1602,10 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1609,10 +1634,10 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1641,10 +1666,10 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
-      <c r="B35" s="4">
-        <v>5.0</v>
+      <c r="B35" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1673,10 +1698,10 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1705,10 +1730,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>40</v>
+      <c r="B37" s="4">
+        <v>5.0</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1737,10 +1762,10 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1768,11 +1793,11 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>65</v>
+      <c r="A39" s="5" t="s">
+        <v>61</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>66</v>
+      <c r="B39" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1801,10 +1826,10 @@
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1833,10 +1858,10 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1864,11 +1889,11 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>71</v>
+      <c r="A42" s="3" t="s">
+        <v>65</v>
       </c>
-      <c r="B42" s="5">
-        <v>6.0</v>
+      <c r="B42" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1897,10 +1922,10 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1929,10 +1954,10 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1960,11 +1985,11 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
-        <v>76</v>
+      <c r="A45" s="7" t="s">
+        <v>71</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>77</v>
+      <c r="B45" s="7">
+        <v>6.0</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1993,10 +2018,10 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -2025,10 +2050,10 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2057,10 +2082,10 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2089,10 +2114,10 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2121,10 +2146,10 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2153,10 +2178,10 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2184,8 +2209,12 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2212,8 +2241,12 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2240,8 +2273,12 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2268,8 +2305,12 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
+      <c r="A55" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2296,8 +2337,12 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
+      <c r="A56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -28867,6 +28912,90 @@
       <c r="Y1004" s="2"/>
       <c r="Z1004" s="2"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
